--- a/Sommerstudenter_timeliste.xlsx
+++ b/Sommerstudenter_timeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8351a88428b982e/Master/MRST/mrst-2021b/summer_sintef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{D4007051-B280-4A2C-B7B9-1EF09DBCFCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3ADC705-992B-4E7C-871F-A55015F05DCF}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{D4007051-B280-4A2C-B7B9-1EF09DBCFCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B416F856-4B07-40FC-9EF3-DEB91BFAC564}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8EFFAFB-49CB-4648-896C-712D84251768}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     </r>
   </si>
   <si>
-    <t>Computational Geosciences</t>
+    <t>TASK/ WP</t>
   </si>
 </sst>
 </file>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3154B0-9389-4599-8069-8924A759F725}">
   <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1026,29 +1026,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="26.5" thickBot="1">
+    <row r="9" spans="2:17" ht="15" thickBot="1">
       <c r="B9" s="13">
         <v>24</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4">
         <v>7.5</v>
       </c>
       <c r="I9" s="4">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4">
         <v>7.5</v>
       </c>
-      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
         <f>SUM(F9:L9)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="15" thickBot="1">

--- a/Sommerstudenter_timeliste.xlsx
+++ b/Sommerstudenter_timeliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8351a88428b982e/Master/MRST/mrst-2021b/summer_sintef/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vn123\OneDrive\Master\MRST\summer_sintef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{D4007051-B280-4A2C-B7B9-1EF09DBCFCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B416F856-4B07-40FC-9EF3-DEB91BFAC564}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D8D401-83F7-4C26-BE01-B69150FE2CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8EFFAFB-49CB-4648-896C-712D84251768}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Timeliste og lønnsutbetalingsskjema - Ansatte på timebasis</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>TASK/ WP</t>
+  </si>
+  <si>
+    <t>FERIE</t>
   </si>
 </sst>
 </file>
@@ -903,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3154B0-9389-4599-8069-8924A759F725}">
   <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1058,11 +1061,6 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
@@ -1077,16 +1075,26 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="F11" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>7.5</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
-        <f t="shared" ref="M11:M28" si="0">SUM(F11:L11)</f>
-        <v>0</v>
+        <f>SUM(F11:L11)</f>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15" thickBot="1">
@@ -1102,7 +1110,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M12:M28" si="0">SUM(F12:L12)</f>
         <v>0</v>
       </c>
     </row>
@@ -1113,16 +1121,26 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7.5</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15" thickBot="1">
@@ -1149,16 +1167,26 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="F15" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>7.5</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1">
@@ -1178,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15" thickBot="1">
+    <row r="17" spans="2:17" ht="15" thickBot="1">
       <c r="B17" s="13">
         <v>28</v>
       </c>
@@ -1197,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15" thickBot="1">
+    <row r="18" spans="2:17" ht="15" thickBot="1">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1214,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15" thickBot="1">
+    <row r="19" spans="2:17" ht="15" thickBot="1">
       <c r="B19" s="13">
         <v>29</v>
       </c>
@@ -1232,8 +1260,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" ht="15" thickBot="1">
+      <c r="Q19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" thickBot="1">
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1250,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15" thickBot="1">
+    <row r="21" spans="2:17" ht="15" thickBot="1">
       <c r="B21" s="13">
         <v>30</v>
       </c>
@@ -1268,8 +1299,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" ht="15" thickBot="1">
+      <c r="Q21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15" thickBot="1">
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1286,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15" thickBot="1">
+    <row r="23" spans="2:17" ht="15" thickBot="1">
       <c r="B23" s="13">
         <v>31</v>
       </c>
@@ -1305,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15" thickBot="1">
+    <row r="24" spans="2:17" ht="15" thickBot="1">
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1322,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1">
+    <row r="25" spans="2:17" ht="15" thickBot="1">
       <c r="B25" s="13">
         <v>32</v>
       </c>
@@ -1341,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="15" thickBot="1">
+    <row r="26" spans="2:17" ht="15" thickBot="1">
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -1358,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15" thickBot="1">
+    <row r="27" spans="2:17" ht="15" thickBot="1">
       <c r="B27" s="17">
         <v>33</v>
       </c>
@@ -1377,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15" thickBot="1">
+    <row r="28" spans="2:17" ht="15" thickBot="1">
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -1394,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="15" thickBot="1">
+    <row r="29" spans="2:17" ht="15" thickBot="1">
       <c r="B29" s="19">
         <v>34</v>
       </c>
@@ -1413,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="15" thickBot="1">
+    <row r="30" spans="2:17" ht="15" thickBot="1">
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -1430,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15" thickBot="1">
+    <row r="31" spans="2:17" ht="15" thickBot="1">
       <c r="B31" s="19">
         <v>35</v>
       </c>
@@ -1449,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="15" thickBot="1">
+    <row r="32" spans="2:17" ht="15" thickBot="1">
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>

--- a/Sommerstudenter_timeliste.xlsx
+++ b/Sommerstudenter_timeliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vn123\OneDrive\Master\MRST\summer_sintef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8351a88428b982e/Master/MRST/summer_sintef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D8D401-83F7-4C26-BE01-B69150FE2CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A2D8D401-83F7-4C26-BE01-B69150FE2CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE9293F-BF08-44D4-9264-8A574A2007E0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8EFFAFB-49CB-4648-896C-712D84251768}"/>
   </bookViews>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3154B0-9389-4599-8069-8924A759F725}">
   <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1213,16 +1213,26 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="F17" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>7.5</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" thickBot="1">
@@ -1327,16 +1337,26 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="F23" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>7.5</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="15" thickBot="1">

--- a/Sommerstudenter_timeliste.xlsx
+++ b/Sommerstudenter_timeliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8351a88428b982e/Master/MRST/summer_sintef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A2D8D401-83F7-4C26-BE01-B69150FE2CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CE9293F-BF08-44D4-9264-8A574A2007E0}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A2D8D401-83F7-4C26-BE01-B69150FE2CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29FF1A03-7712-4F4F-8053-32EF75CEBDA9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8EFFAFB-49CB-4648-896C-712D84251768}"/>
   </bookViews>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3154B0-9389-4599-8069-8924A759F725}">
   <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1383,16 +1383,26 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="F25" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>7.5</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="15" thickBot="1">

--- a/Sommerstudenter_timeliste.xlsx
+++ b/Sommerstudenter_timeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8351a88428b982e/Master/MRST/summer_sintef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A2D8D401-83F7-4C26-BE01-B69150FE2CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29FF1A03-7712-4F4F-8053-32EF75CEBDA9}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{A2D8D401-83F7-4C26-BE01-B69150FE2CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB1BCD3-5FED-4ED0-8F4B-A0E2782FB8C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8EFFAFB-49CB-4648-896C-712D84251768}"/>
   </bookViews>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3154B0-9389-4599-8069-8924A759F725}">
   <dimension ref="B3:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1429,16 +1429,26 @@
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="F27" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="G27" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H27" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="I27" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="J27" s="8">
+        <v>7.5</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="15" thickBot="1">
